--- a/data/input/poblacion_municipios.xlsx
+++ b/data/input/poblacion_municipios.xlsx
@@ -667,6 +667,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -733,12 +734,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -750,15 +751,15 @@
   </sheetPr>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E91" activeCellId="0" sqref="E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.47"/>
@@ -799,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2416</v>
+        <v>2394</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>3</v>
@@ -809,7 +810,7 @@
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">($D2/$C2)*1000</f>
-        <v>1.24172185430464</v>
+        <v>1.2531328320802</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">($E2/$C2)*1000</f>
@@ -824,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4288</v>
+        <v>4319</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>17</v>
@@ -834,11 +835,11 @@
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">($D3/$C3)*1000</f>
-        <v>3.96455223880597</v>
+        <v>3.93609631859227</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">($E3/$C3)*1000</f>
-        <v>0.466417910447761</v>
+        <v>0.463070155128502</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -859,7 +860,7 @@
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">($D4/$C4)*1000</f>
-        <v>3.74531835205992</v>
+        <v>3.64963503649635</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">($E4/$C4)*1000</f>
@@ -874,7 +875,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1679</v>
+        <v>1665</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -899,7 +900,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1748</v>
+        <v>1788</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -924,7 +925,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2</v>
@@ -934,7 +935,7 @@
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">($D7/$C7)*1000</f>
-        <v>0.951022349025202</v>
+        <v>0.949667616334283</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">($E7/$C7)*1000</f>
@@ -974,7 +975,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>18111</v>
+        <v>18134</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>21</v>
@@ -984,7 +985,7 @@
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">($D9/$C9)*1000</f>
-        <v>1.15951631605102</v>
+        <v>1.15804566008603</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">($E9/$C9)*1000</f>
@@ -999,7 +1000,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4246</v>
+        <v>4319</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>11</v>
@@ -1009,11 +1010,11 @@
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">($D10/$C10)*1000</f>
-        <v>2.59067357512953</v>
+        <v>2.54688585320676</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">($E10/$C10)*1000</f>
-        <v>0.471031559114461</v>
+        <v>0.463070155128502</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1024,7 +1025,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -1049,7 +1050,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1950</v>
+        <v>1994</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -1059,7 +1060,7 @@
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">($D12/$C12)*1000</f>
-        <v>1.02564102564103</v>
+        <v>1.00300902708124</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">($E12/$C12)*1000</f>
@@ -1074,7 +1075,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>8301</v>
+        <v>8358</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>79</v>
@@ -1084,11 +1085,11 @@
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">($D13/$C13)*1000</f>
-        <v>9.51692567160583</v>
+        <v>9.45202201483608</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">($E13/$C13)*1000</f>
-        <v>0.602337067823154</v>
+        <v>0.598229241445322</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,7 +1100,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
@@ -1124,7 +1125,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
@@ -1149,7 +1150,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
@@ -1174,7 +1175,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>30260</v>
+        <v>30320</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>36</v>
@@ -1184,7 +1185,7 @@
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">($D17/$C17)*1000</f>
-        <v>1.18968935888962</v>
+        <v>1.18733509234828</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">($E17/$C17)*1000</f>
@@ -1199,7 +1200,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -1209,7 +1210,7 @@
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">($D18/$C18)*1000</f>
-        <v>2.98953662182362</v>
+        <v>2.98507462686567</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">($E18/$C18)*1000</f>
@@ -1224,7 +1225,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>5747</v>
+        <v>5731</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>11</v>
@@ -1234,7 +1235,7 @@
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">($D19/$C19)*1000</f>
-        <v>1.9140421089264</v>
+        <v>1.91938579654511</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">($E19/$C19)*1000</f>
@@ -1249,7 +1250,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>2914</v>
+        <v>2968</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -1259,7 +1260,7 @@
       </c>
       <c r="F20" s="0" t="n">
         <f aca="false">($D20/$C20)*1000</f>
-        <v>0.686341798215511</v>
+        <v>0.673854447439353</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">($E20/$C20)*1000</f>
@@ -1274,7 +1275,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>32069</v>
+        <v>32270</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>95</v>
@@ -1284,11 +1285,11 @@
       </c>
       <c r="F21" s="0" t="n">
         <f aca="false">($D21/$C21)*1000</f>
-        <v>2.96236240606193</v>
+        <v>2.94391075302138</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">($E21/$C21)*1000</f>
-        <v>0.280644859521656</v>
+        <v>0.278896808180973</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,7 +1300,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
@@ -1324,7 +1325,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0</v>
@@ -1349,7 +1350,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>8484</v>
+        <v>8598</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>20</v>
@@ -1359,7 +1360,7 @@
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">($D24/$C24)*1000</f>
-        <v>2.35737859500236</v>
+        <v>2.32612235403582</v>
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">($E24/$C24)*1000</f>
@@ -1374,7 +1375,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>2141</v>
+        <v>2124</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>4</v>
@@ -1384,7 +1385,7 @@
       </c>
       <c r="F25" s="0" t="n">
         <f aca="false">($D25/$C25)*1000</f>
-        <v>1.8682858477347</v>
+        <v>1.88323917137476</v>
       </c>
       <c r="G25" s="0" t="n">
         <f aca="false">($E25/$C25)*1000</f>
@@ -1399,7 +1400,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>10841</v>
+        <v>10767</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>26</v>
@@ -1409,11 +1410,11 @@
       </c>
       <c r="F26" s="0" t="n">
         <f aca="false">($D26/$C26)*1000</f>
-        <v>2.39830273959967</v>
+        <v>2.41478591994056</v>
       </c>
       <c r="G26" s="0" t="n">
         <f aca="false">($E26/$C26)*1000</f>
-        <v>0.184484826123051</v>
+        <v>0.185752763072351</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,7 +1425,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>6</v>
@@ -1434,11 +1435,11 @@
       </c>
       <c r="F27" s="0" t="n">
         <f aca="false">($D27/$C27)*1000</f>
-        <v>2.94261893084846</v>
+        <v>2.9382957884427</v>
       </c>
       <c r="G27" s="0" t="n">
         <f aca="false">($E27/$C27)*1000</f>
-        <v>0.490436488474743</v>
+        <v>0.489715964740451</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,7 +1450,7 @@
         <v>60</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>3714</v>
+        <v>3696</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>8</v>
@@ -1459,11 +1460,11 @@
       </c>
       <c r="F28" s="0" t="n">
         <f aca="false">($D28/$C28)*1000</f>
-        <v>2.15401184706516</v>
+        <v>2.16450216450216</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">($E28/$C28)*1000</f>
-        <v>0.269251480883145</v>
+        <v>0.270562770562771</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,7 +1475,7 @@
         <v>62</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>5163</v>
+        <v>5260</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>4</v>
@@ -1484,11 +1485,11 @@
       </c>
       <c r="F29" s="0" t="n">
         <f aca="false">($D29/$C29)*1000</f>
-        <v>0.774743366259926</v>
+        <v>0.760456273764259</v>
       </c>
       <c r="G29" s="0" t="n">
         <f aca="false">($E29/$C29)*1000</f>
-        <v>0.193685841564982</v>
+        <v>0.190114068441065</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,7 +1500,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>3</v>
@@ -1509,7 +1510,7 @@
       </c>
       <c r="F30" s="0" t="n">
         <f aca="false">($D30/$C30)*1000</f>
-        <v>3.85109114249037</v>
+        <v>3.84122919334187</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">($E30/$C30)*1000</f>
@@ -1524,7 +1525,7 @@
         <v>66</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>2354</v>
+        <v>2330</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>0</v>
@@ -1549,7 +1550,7 @@
         <v>68</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1</v>
@@ -1559,7 +1560,7 @@
       </c>
       <c r="F32" s="0" t="n">
         <f aca="false">($D32/$C32)*1000</f>
-        <v>0.637348629700446</v>
+        <v>0.632911392405063</v>
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">($E32/$C32)*1000</f>
@@ -1574,7 +1575,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1603</v>
+        <v>1588</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>3</v>
@@ -1584,11 +1585,11 @@
       </c>
       <c r="F33" s="0" t="n">
         <f aca="false">($D33/$C33)*1000</f>
-        <v>1.87149095446039</v>
+        <v>1.88916876574307</v>
       </c>
       <c r="G33" s="0" t="n">
         <f aca="false">($E33/$C33)*1000</f>
-        <v>0.623830318153462</v>
+        <v>0.629722921914358</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,7 +1600,7 @@
         <v>72</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>1</v>
@@ -1609,7 +1610,7 @@
       </c>
       <c r="F34" s="0" t="n">
         <f aca="false">($D34/$C34)*1000</f>
-        <v>1.65289256198347</v>
+        <v>1.70357751277683</v>
       </c>
       <c r="G34" s="0" t="n">
         <f aca="false">($E34/$C34)*1000</f>
@@ -1624,7 +1625,7 @@
         <v>74</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0</v>
@@ -1649,7 +1650,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>11025</v>
+        <v>11023</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>42</v>
@@ -1659,11 +1660,11 @@
       </c>
       <c r="F36" s="0" t="n">
         <f aca="false">($D36/$C36)*1000</f>
-        <v>3.80952380952381</v>
+        <v>3.81021500498957</v>
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">($E36/$C36)*1000</f>
-        <v>0.272108843537415</v>
+        <v>0.272158214642112</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,7 +1675,7 @@
         <v>78</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>0</v>
@@ -1699,7 +1700,7 @@
         <v>80</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>2379</v>
+        <v>2407</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>3</v>
@@ -1709,7 +1710,7 @@
       </c>
       <c r="F38" s="0" t="n">
         <f aca="false">($D38/$C38)*1000</f>
-        <v>1.26103404791929</v>
+        <v>1.24636476942252</v>
       </c>
       <c r="G38" s="0" t="n">
         <f aca="false">($E38/$C38)*1000</f>
@@ -1724,7 +1725,7 @@
         <v>82</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1879</v>
+        <v>1928</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>27</v>
@@ -1734,11 +1735,11 @@
       </c>
       <c r="F39" s="0" t="n">
         <f aca="false">($D39/$C39)*1000</f>
-        <v>14.3693453964875</v>
+        <v>14.0041493775934</v>
       </c>
       <c r="G39" s="0" t="n">
         <f aca="false">($E39/$C39)*1000</f>
-        <v>1.06439595529537</v>
+        <v>1.03734439834025</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,7 +1750,7 @@
         <v>84</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0</v>
@@ -1774,7 +1775,7 @@
         <v>86</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>5125</v>
+        <v>5106</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>4</v>
@@ -1784,11 +1785,11 @@
       </c>
       <c r="F41" s="0" t="n">
         <f aca="false">($D41/$C41)*1000</f>
-        <v>0.780487804878049</v>
+        <v>0.783392087739914</v>
       </c>
       <c r="G41" s="0" t="n">
         <f aca="false">($E41/$C41)*1000</f>
-        <v>0.195121951219512</v>
+        <v>0.195848021934978</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,7 +1800,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>2105</v>
+        <v>2093</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>7</v>
@@ -1809,11 +1810,11 @@
       </c>
       <c r="F42" s="0" t="n">
         <f aca="false">($D42/$C42)*1000</f>
-        <v>3.32541567695962</v>
+        <v>3.34448160535117</v>
       </c>
       <c r="G42" s="0" t="n">
         <f aca="false">($E42/$C42)*1000</f>
-        <v>0.475059382422803</v>
+        <v>0.477783086478739</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,7 +1825,7 @@
         <v>90</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>7556</v>
+        <v>7577</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>3</v>
@@ -1834,7 +1835,7 @@
       </c>
       <c r="F43" s="0" t="n">
         <f aca="false">($D43/$C43)*1000</f>
-        <v>0.397035468501853</v>
+        <v>0.39593506664907</v>
       </c>
       <c r="G43" s="0" t="n">
         <f aca="false">($E43/$C43)*1000</f>
@@ -1849,7 +1850,7 @@
         <v>92</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>2028</v>
+        <v>2086</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
@@ -1859,7 +1860,7 @@
       </c>
       <c r="F44" s="0" t="n">
         <f aca="false">($D44/$C44)*1000</f>
-        <v>0.493096646942801</v>
+        <v>0.479386385426654</v>
       </c>
       <c r="G44" s="0" t="n">
         <f aca="false">($E44/$C44)*1000</f>
@@ -1874,7 +1875,7 @@
         <v>94</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>4741</v>
+        <v>4891</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>3</v>
@@ -1884,7 +1885,7 @@
       </c>
       <c r="F45" s="0" t="n">
         <f aca="false">($D45/$C45)*1000</f>
-        <v>0.632777894958869</v>
+        <v>0.613371498671028</v>
       </c>
       <c r="G45" s="0" t="n">
         <f aca="false">($E45/$C45)*1000</f>
@@ -1899,7 +1900,7 @@
         <v>96</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>0</v>
@@ -1924,7 +1925,7 @@
         <v>98</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>3</v>
@@ -1934,11 +1935,11 @@
       </c>
       <c r="F47" s="0" t="n">
         <f aca="false">($D47/$C47)*1000</f>
-        <v>1.99468085106383</v>
+        <v>1.9907100199071</v>
       </c>
       <c r="G47" s="0" t="n">
         <f aca="false">($E47/$C47)*1000</f>
-        <v>0.664893617021277</v>
+        <v>0.6635700066357</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,7 +1950,7 @@
         <v>100</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>2556</v>
+        <v>2588</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>3</v>
@@ -1959,11 +1960,11 @@
       </c>
       <c r="F48" s="0" t="n">
         <f aca="false">($D48/$C48)*1000</f>
-        <v>1.17370892018779</v>
+        <v>1.15919629057187</v>
       </c>
       <c r="G48" s="0" t="n">
         <f aca="false">($E48/$C48)*1000</f>
-        <v>0.391236306729264</v>
+        <v>0.386398763523957</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2024,7 +2025,7 @@
         <v>106</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>0</v>
@@ -2049,7 +2050,7 @@
         <v>108</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>0</v>
@@ -2074,7 +2075,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>25559</v>
+        <v>25731</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>57</v>
@@ -2084,7 +2085,7 @@
       </c>
       <c r="F53" s="0" t="n">
         <f aca="false">($D53/$C53)*1000</f>
-        <v>2.23013419930357</v>
+        <v>2.21522676926664</v>
       </c>
       <c r="G53" s="0" t="n">
         <f aca="false">($E53/$C53)*1000</f>
@@ -2099,7 +2100,7 @@
         <v>112</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>0</v>
@@ -2124,7 +2125,7 @@
         <v>114</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>5896</v>
+        <v>5942</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>7</v>
@@ -2134,7 +2135,7 @@
       </c>
       <c r="F55" s="0" t="n">
         <f aca="false">($D55/$C55)*1000</f>
-        <v>1.18724559023067</v>
+        <v>1.17805452709525</v>
       </c>
       <c r="G55" s="0" t="n">
         <f aca="false">($E55/$C55)*1000</f>
@@ -2149,7 +2150,7 @@
         <v>116</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>1343</v>
+        <v>1332</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>0</v>
@@ -2174,7 +2175,7 @@
         <v>118</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>2854</v>
+        <v>2845</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>5</v>
@@ -2184,11 +2185,11 @@
       </c>
       <c r="F57" s="0" t="n">
         <f aca="false">($D57/$C57)*1000</f>
-        <v>1.75192711983182</v>
+        <v>1.75746924428823</v>
       </c>
       <c r="G57" s="0" t="n">
         <f aca="false">($E57/$C57)*1000</f>
-        <v>0.350385423966363</v>
+        <v>0.351493848857645</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2199,7 +2200,7 @@
         <v>120</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>8</v>
@@ -2209,11 +2210,11 @@
       </c>
       <c r="F58" s="0" t="n">
         <f aca="false">($D58/$C58)*1000</f>
-        <v>2.78164116828929</v>
+        <v>2.78067431352103</v>
       </c>
       <c r="G58" s="0" t="n">
         <f aca="false">($E58/$C58)*1000</f>
-        <v>0.347705146036161</v>
+        <v>0.347584289190129</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,7 +2225,7 @@
         <v>122</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>931</v>
+        <v>955</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>6</v>
@@ -2234,7 +2235,7 @@
       </c>
       <c r="F59" s="0" t="n">
         <f aca="false">($D59/$C59)*1000</f>
-        <v>6.44468313641246</v>
+        <v>6.28272251308901</v>
       </c>
       <c r="G59" s="0" t="n">
         <f aca="false">($E59/$C59)*1000</f>
@@ -2249,7 +2250,7 @@
         <v>124</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>9003</v>
+        <v>8946</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>45</v>
@@ -2259,11 +2260,11 @@
       </c>
       <c r="F60" s="0" t="n">
         <f aca="false">($D60/$C60)*1000</f>
-        <v>4.99833388870377</v>
+        <v>5.03018108651911</v>
       </c>
       <c r="G60" s="0" t="n">
         <f aca="false">($E60/$C60)*1000</f>
-        <v>0.666444518493835</v>
+        <v>0.670690811535882</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,7 +2275,7 @@
         <v>126</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>8384</v>
+        <v>8399</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>11</v>
@@ -2284,7 +2285,7 @@
       </c>
       <c r="F61" s="0" t="n">
         <f aca="false">($D61/$C61)*1000</f>
-        <v>1.31202290076336</v>
+        <v>1.30967972377664</v>
       </c>
       <c r="G61" s="0" t="n">
         <f aca="false">($E61/$C61)*1000</f>
@@ -2299,7 +2300,7 @@
         <v>128</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>4437</v>
+        <v>4478</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>5</v>
@@ -2309,7 +2310,7 @@
       </c>
       <c r="F62" s="0" t="n">
         <f aca="false">($D62/$C62)*1000</f>
-        <v>1.12688753662384</v>
+        <v>1.11656989727557</v>
       </c>
       <c r="G62" s="0" t="n">
         <f aca="false">($E62/$C62)*1000</f>
@@ -2324,7 +2325,7 @@
         <v>130</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>2276</v>
+        <v>2303</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>1</v>
@@ -2334,7 +2335,7 @@
       </c>
       <c r="F63" s="0" t="n">
         <f aca="false">($D63/$C63)*1000</f>
-        <v>0.439367311072056</v>
+        <v>0.434216239687364</v>
       </c>
       <c r="G63" s="0" t="n">
         <f aca="false">($E63/$C63)*1000</f>
@@ -2349,7 +2350,7 @@
         <v>132</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>1</v>
@@ -2359,7 +2360,7 @@
       </c>
       <c r="F64" s="0" t="n">
         <f aca="false">($D64/$C64)*1000</f>
-        <v>0.955109837631328</v>
+        <v>0.971817298347911</v>
       </c>
       <c r="G64" s="0" t="n">
         <f aca="false">($E64/$C64)*1000</f>
@@ -2374,7 +2375,7 @@
         <v>134</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>1601</v>
+        <v>1611</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>1</v>
@@ -2384,7 +2385,7 @@
       </c>
       <c r="F65" s="0" t="n">
         <f aca="false">($D65/$C65)*1000</f>
-        <v>0.624609618988132</v>
+        <v>0.620732464307883</v>
       </c>
       <c r="G65" s="0" t="n">
         <f aca="false">($E65/$C65)*1000</f>
@@ -2399,7 +2400,7 @@
         <v>136</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>0</v>
@@ -2424,7 +2425,7 @@
         <v>138</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>2</v>
@@ -2434,7 +2435,7 @@
       </c>
       <c r="F67" s="0" t="n">
         <f aca="false">($D67/$C67)*1000</f>
-        <v>1.96850393700787</v>
+        <v>1.9782393669634</v>
       </c>
       <c r="G67" s="0" t="n">
         <f aca="false">($E67/$C67)*1000</f>
@@ -2449,7 +2450,7 @@
         <v>140</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>4</v>
@@ -2459,7 +2460,7 @@
       </c>
       <c r="F68" s="0" t="n">
         <f aca="false">($D68/$C68)*1000</f>
-        <v>4.76758045292014</v>
+        <v>4.78468899521531</v>
       </c>
       <c r="G68" s="0" t="n">
         <f aca="false">($E68/$C68)*1000</f>
@@ -2474,7 +2475,7 @@
         <v>142</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>0</v>
@@ -2499,7 +2500,7 @@
         <v>144</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>2361</v>
+        <v>2367</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>4</v>
@@ -2509,7 +2510,7 @@
       </c>
       <c r="F70" s="0" t="n">
         <f aca="false">($D70/$C70)*1000</f>
-        <v>1.69419737399407</v>
+        <v>1.68990283058724</v>
       </c>
       <c r="G70" s="0" t="n">
         <f aca="false">($E70/$C70)*1000</f>
@@ -2524,7 +2525,7 @@
         <v>146</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>0</v>
@@ -2549,7 +2550,7 @@
         <v>148</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>0</v>
@@ -2574,7 +2575,7 @@
         <v>150</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>0</v>
@@ -2599,7 +2600,7 @@
         <v>152</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>13095</v>
+        <v>13088</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>24</v>
@@ -2609,11 +2610,11 @@
       </c>
       <c r="F74" s="0" t="n">
         <f aca="false">($D74/$C74)*1000</f>
-        <v>1.83276059564719</v>
+        <v>1.83374083129584</v>
       </c>
       <c r="G74" s="0" t="n">
         <f aca="false">($E74/$C74)*1000</f>
-        <v>0.0763650248186331</v>
+        <v>0.0764058679706602</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,7 +2625,7 @@
         <v>154</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>9159</v>
+        <v>9167</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>6</v>
@@ -2634,7 +2635,7 @@
       </c>
       <c r="F75" s="0" t="n">
         <f aca="false">($D75/$C75)*1000</f>
-        <v>0.655093350802489</v>
+        <v>0.654521653758045</v>
       </c>
       <c r="G75" s="0" t="n">
         <f aca="false">($E75/$C75)*1000</f>
@@ -2649,7 +2650,7 @@
         <v>156</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>172539</v>
+        <v>173375</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>394</v>
@@ -2659,11 +2660,11 @@
       </c>
       <c r="F76" s="0" t="n">
         <f aca="false">($D76/$C76)*1000</f>
-        <v>2.28354169202325</v>
+        <v>2.27253064167267</v>
       </c>
       <c r="G76" s="0" t="n">
         <f aca="false">($E76/$C76)*1000</f>
-        <v>0.0811410753510801</v>
+        <v>0.0807498197548666</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,7 +2675,7 @@
         <v>158</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>4207</v>
+        <v>4229</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>6</v>
@@ -2684,7 +2685,7 @@
       </c>
       <c r="F77" s="0" t="n">
         <f aca="false">($D77/$C77)*1000</f>
-        <v>1.42619443784169</v>
+        <v>1.41877512414282</v>
       </c>
       <c r="G77" s="0" t="n">
         <f aca="false">($E77/$C77)*1000</f>
@@ -2724,7 +2725,7 @@
         <v>162</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>1629</v>
+        <v>1646</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>2</v>
@@ -2734,7 +2735,7 @@
       </c>
       <c r="F79" s="0" t="n">
         <f aca="false">($D79/$C79)*1000</f>
-        <v>1.22774708410068</v>
+        <v>1.21506682867558</v>
       </c>
       <c r="G79" s="0" t="n">
         <f aca="false">($E79/$C79)*1000</f>
@@ -2749,7 +2750,7 @@
         <v>164</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>11024</v>
+        <v>11019</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>45</v>
@@ -2759,11 +2760,11 @@
       </c>
       <c r="F80" s="0" t="n">
         <f aca="false">($D80/$C80)*1000</f>
-        <v>4.08200290275762</v>
+        <v>4.08385515927035</v>
       </c>
       <c r="G80" s="0" t="n">
         <f aca="false">($E80/$C80)*1000</f>
-        <v>0.45355587808418</v>
+        <v>0.453761684363372</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,7 +2775,7 @@
         <v>166</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>4124</v>
+        <v>4095</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>4</v>
@@ -2784,7 +2785,7 @@
       </c>
       <c r="F81" s="0" t="n">
         <f aca="false">($D81/$C81)*1000</f>
-        <v>0.969932104752667</v>
+        <v>0.976800976800977</v>
       </c>
       <c r="G81" s="0" t="n">
         <f aca="false">($E81/$C81)*1000</f>
@@ -2799,7 +2800,7 @@
         <v>168</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
@@ -2824,7 +2825,7 @@
         <v>170</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>1891</v>
+        <v>1873</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>0</v>
@@ -2849,7 +2850,7 @@
         <v>172</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>1180</v>
+        <v>1155</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>2</v>
@@ -2859,7 +2860,7 @@
       </c>
       <c r="F84" s="0" t="n">
         <f aca="false">($D84/$C84)*1000</f>
-        <v>1.69491525423729</v>
+        <v>1.73160173160173</v>
       </c>
       <c r="G84" s="0" t="n">
         <f aca="false">($E84/$C84)*1000</f>
@@ -2874,7 +2875,7 @@
         <v>174</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>0</v>
@@ -2899,7 +2900,7 @@
         <v>176</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>8782</v>
+        <v>8827</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>7</v>
@@ -2909,7 +2910,7 @@
       </c>
       <c r="F86" s="0" t="n">
         <f aca="false">($D86/$C86)*1000</f>
-        <v>0.797084946481439</v>
+        <v>0.793021411578113</v>
       </c>
       <c r="G86" s="0" t="n">
         <f aca="false">($E86/$C86)*1000</f>
@@ -2949,7 +2950,7 @@
         <v>180</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>51494</v>
+        <v>51597</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>166</v>
@@ -2959,11 +2960,11 @@
       </c>
       <c r="F88" s="0" t="n">
         <f aca="false">($D88/$C88)*1000</f>
-        <v>3.22367654484018</v>
+        <v>3.21724131247941</v>
       </c>
       <c r="G88" s="0" t="n">
         <f aca="false">($E88/$C88)*1000</f>
-        <v>0.0388394764438575</v>
+        <v>0.0387619435238483</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,7 +2975,7 @@
         <v>182</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>0</v>
@@ -2999,7 +3000,7 @@
         <v>184</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>0</v>
@@ -3024,7 +3025,7 @@
         <v>186</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>1</v>
@@ -3034,11 +3035,11 @@
       </c>
       <c r="F91" s="0" t="n">
         <f aca="false">($D91/$C91)*1000</f>
-        <v>1.07066381156317</v>
+        <v>1.07758620689655</v>
       </c>
       <c r="G91" s="0" t="n">
         <f aca="false">($E91/$C91)*1000</f>
-        <v>1.07066381156317</v>
+        <v>1.07758620689655</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,7 +3050,7 @@
         <v>188</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>2182</v>
+        <v>2150</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>3</v>
@@ -3059,7 +3060,7 @@
       </c>
       <c r="F92" s="0" t="n">
         <f aca="false">($D92/$C92)*1000</f>
-        <v>1.37488542621448</v>
+        <v>1.3953488372093</v>
       </c>
       <c r="G92" s="0" t="n">
         <f aca="false">($E92/$C92)*1000</f>
@@ -3074,7 +3075,7 @@
         <v>190</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>0</v>
@@ -3099,7 +3100,7 @@
         <v>192</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0</v>
@@ -3124,7 +3125,7 @@
         <v>194</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>989</v>
+        <v>950</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>1</v>
@@ -3134,7 +3135,7 @@
       </c>
       <c r="F95" s="0" t="n">
         <f aca="false">($D95/$C95)*1000</f>
-        <v>1.01112234580384</v>
+        <v>1.05263157894737</v>
       </c>
       <c r="G95" s="0" t="n">
         <f aca="false">($E95/$C95)*1000</f>
@@ -3149,7 +3150,7 @@
         <v>196</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>2728</v>
+        <v>2758</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>38</v>
@@ -3159,11 +3160,11 @@
       </c>
       <c r="F96" s="0" t="n">
         <f aca="false">($D96/$C96)*1000</f>
-        <v>13.9296187683284</v>
+        <v>13.7781000725163</v>
       </c>
       <c r="G96" s="0" t="n">
         <f aca="false">($E96/$C96)*1000</f>
-        <v>0.733137829912023</v>
+        <v>0.725163161711385</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,7 +3175,7 @@
         <v>198</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>0</v>
@@ -3199,7 +3200,7 @@
         <v>200</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>1</v>
@@ -3209,7 +3210,7 @@
       </c>
       <c r="F98" s="0" t="n">
         <f aca="false">($D98/$C98)*1000</f>
-        <v>1.31061598951507</v>
+        <v>1.34048257372654</v>
       </c>
       <c r="G98" s="0" t="n">
         <f aca="false">($E98/$C98)*1000</f>
@@ -3249,7 +3250,7 @@
         <v>204</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>3899</v>
+        <v>3933</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>5</v>
@@ -3259,7 +3260,7 @@
       </c>
       <c r="F100" s="0" t="n">
         <f aca="false">($D100/$C100)*1000</f>
-        <v>1.28238009746089</v>
+        <v>1.27129417747267</v>
       </c>
       <c r="G100" s="0" t="n">
         <f aca="false">($E100/$C100)*1000</f>
@@ -3274,7 +3275,7 @@
         <v>206</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>0</v>
@@ -3299,7 +3300,7 @@
         <v>208</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>0</v>
@@ -3324,7 +3325,7 @@
         <v>210</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>2724</v>
+        <v>2686</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>9</v>
@@ -3334,11 +3335,11 @@
       </c>
       <c r="F103" s="0" t="n">
         <f aca="false">($D103/$C103)*1000</f>
-        <v>3.30396475770925</v>
+        <v>3.35070737155622</v>
       </c>
       <c r="G103" s="0" t="n">
         <f aca="false">($E103/$C103)*1000</f>
-        <v>0.367107195301028</v>
+        <v>0.372300819061802</v>
       </c>
     </row>
   </sheetData>
@@ -3346,8 +3347,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>